--- a/Audit/Template-SEO-audit .xlsx
+++ b/Audit/Template-SEO-audit .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALLHAILYOURMAJESTY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALLHAILYOURMAJESTY\Desktop\SEO-Website\Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61D8EADE-5068-490A-8ECE-4E0A56729198}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC147314-5401-41EB-9748-51B23D3E9E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>Category</t>
   </si>
@@ -57,9 +57,6 @@
     <t xml:space="preserve">Changed Folder name </t>
   </si>
   <si>
-    <t>OpenClassRoom</t>
-  </si>
-  <si>
     <t>Title name</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t xml:space="preserve">Changed Title name </t>
   </si>
   <si>
-    <t>OpenClassRoom, www.w3school.com</t>
-  </si>
-  <si>
     <t>Semantic HTML</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>Changed div tag to semantic tag</t>
   </si>
   <si>
-    <t>openClassRoom, www.w3school.com, www.freecodecamp.org</t>
-  </si>
-  <si>
     <t>KPI, and description</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>I used most searching word and sentence in different SEO web and put inside mata tag</t>
   </si>
   <si>
-    <t>Google Keyword planner, KWFinder</t>
-  </si>
-  <si>
     <t>H1 tag</t>
   </si>
   <si>
@@ -199,6 +187,39 @@
   </si>
   <si>
     <t>Future Plan</t>
+  </si>
+  <si>
+    <t>Google Keyword planner, KWFinder,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.w3school.com, </t>
+  </si>
+  <si>
+    <t>www.w3school.com, freecodecamp.com,</t>
+  </si>
+  <si>
+    <t>www.dopinger.com,</t>
+  </si>
+  <si>
+    <t>www.udemy.com, www.youtube.com</t>
+  </si>
+  <si>
+    <t>www.w3school.com, www.stackoverflow.com</t>
+  </si>
+  <si>
+    <t>www.w3school.com, www.freecodecamp.com,</t>
+  </si>
+  <si>
+    <t>www.w3school.com, freecodecamp.com,.www.dopinger.com</t>
+  </si>
+  <si>
+    <t>www.w3school.com, www.halil.com.tr</t>
+  </si>
+  <si>
+    <t>www.w3school.com, www.udemy.com</t>
+  </si>
+  <si>
+    <t>www.w3school.com, www.yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -277,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,15 +309,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +537,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -525,7 +547,7 @@
     <col min="3" max="3" width="34.44140625" customWidth="1"/>
     <col min="4" max="4" width="67.21875" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -585,8 +607,8 @@
       <c r="E2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
+      <c r="F2" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -594,19 +616,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
+      <c r="F3" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,19 +636,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
+      <c r="F4" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -634,19 +656,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
+      <c r="F5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -654,19 +676,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
+      <c r="F6" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,19 +696,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
+      <c r="F7" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,19 +716,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
+      <c r="F8" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -714,19 +736,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
+      <c r="F9" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -734,19 +756,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
+      <c r="F10" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,19 +776,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
+      <c r="F11" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,19 +796,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
+      <c r="F12" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -794,19 +816,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
+      <c r="F13" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -814,19 +836,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
+      <c r="F14" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -834,71 +856,69 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1884,7 +1904,10 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1" display="www.w3school.com," xr:uid="{2F632087-E441-4BF6-9D12-201CAF479786}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>